--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18915" windowHeight="8445"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="18915" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -624,20 +624,20 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5">
         <f>SUM(F2:F5)+SUM(G2:G5)/60</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -651,7 +651,7 @@
         <v>40822</v>
       </c>
       <c r="C6" s="4">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D6" s="4">
         <v>0.3125</v>
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5">
         <v>30</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F6:F22)</f>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(G6:G22)/60</f>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F24" s="9">
         <f>SUM(F23:G23)</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="10"/>
     </row>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -517,7 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1052,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="9">
-        <f>SUM(F23:G23)</f>
+        <f>ROUND(SUM(F23:G23),0)</f>
         <v>167</v>
       </c>
       <c r="G24" s="10"/>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -515,11 +515,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -603,13 +601,13 @@
         <v>0.375</v>
       </c>
       <c r="D4" s="4">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -626,18 +624,18 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="8">
         <f>SUM(F2:F5)+SUM(G2:G5)/60</f>
         <v>37</v>
       </c>
@@ -647,22 +645,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>40823</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
         <v>10</v>
-      </c>
-      <c r="B6" s="3">
-        <v>40822</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3</v>
       </c>
       <c r="G6" s="5">
         <v>30</v>
@@ -670,10 +668,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>40823</v>
+        <v>40826</v>
       </c>
       <c r="C7" s="4">
         <v>0.375</v>
@@ -685,18 +683,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>40826</v>
+        <v>40827</v>
       </c>
       <c r="C8" s="4">
         <v>0.375</v>
@@ -708,53 +706,53 @@
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>40827</v>
+        <v>40828</v>
       </c>
       <c r="C9" s="4">
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>40828</v>
+        <v>40829</v>
       </c>
       <c r="C10" s="4">
         <v>0.375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -762,10 +760,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>40829</v>
+        <v>40830</v>
       </c>
       <c r="C11" s="4">
         <v>0.375</v>
@@ -785,10 +783,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>40830</v>
+        <v>40833</v>
       </c>
       <c r="C12" s="4">
         <v>0.375</v>
@@ -800,18 +798,18 @@
         <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>40833</v>
+        <v>40834</v>
       </c>
       <c r="C13" s="4">
         <v>0.375</v>
@@ -823,53 +821,53 @@
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
-        <v>40834</v>
+        <v>40835</v>
       </c>
       <c r="C14" s="4">
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>40835</v>
+        <v>40836</v>
       </c>
       <c r="C15" s="4">
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -877,10 +875,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>40836</v>
+        <v>40837</v>
       </c>
       <c r="C16" s="4">
         <v>0.375</v>
@@ -900,10 +898,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>40837</v>
+        <v>40840</v>
       </c>
       <c r="C17" s="4">
         <v>0.375</v>
@@ -915,18 +913,18 @@
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>40840</v>
+        <v>40841</v>
       </c>
       <c r="C18" s="4">
         <v>0.375</v>
@@ -938,53 +936,53 @@
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>40841</v>
+        <v>40842</v>
       </c>
       <c r="C19" s="4">
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
-        <v>40842</v>
+        <v>40843</v>
       </c>
       <c r="C20" s="4">
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -992,10 +990,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>40843</v>
+        <v>40844</v>
       </c>
       <c r="C21" s="4">
         <v>0.375</v>
@@ -1014,54 +1012,31 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40844</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="5">
-        <v>30</v>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8">
+        <f>SUM(F6:F21)</f>
+        <v>166</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(G6:G21)/60</f>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8">
-        <f>SUM(F6:F22)</f>
-        <v>160</v>
-      </c>
-      <c r="G23" s="8">
-        <f>SUM(G6:G22)/60</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9">
-        <f>ROUND(SUM(F23:G23),0)</f>
-        <v>167</v>
-      </c>
-      <c r="G24" s="10"/>
+      <c r="F23" s="9">
+        <f>ROUND(SUM(F22:G22),0)</f>
+        <v>168</v>
+      </c>
+      <c r="G23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -63,7 +63,10 @@
     <t>NO</t>
   </si>
   <si>
-    <t>(Horas recuperadas mes anterior)</t>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -180,11 +183,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,12 +233,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +586,10 @@
         <v>40819</v>
       </c>
       <c r="C2" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D2" s="4">
-        <v>0.3125</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -575,16 +609,16 @@
         <v>40820</v>
       </c>
       <c r="C3" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D3" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5">
         <v>30</v>
@@ -598,10 +632,10 @@
         <v>40821</v>
       </c>
       <c r="C4" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D4" s="4">
-        <v>0.125</v>
+        <v>0.18055555555555555</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -610,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -621,10 +655,10 @@
         <v>40822</v>
       </c>
       <c r="C5" s="4">
-        <v>0.375</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D5" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -632,16 +666,11 @@
       <c r="F5" s="6">
         <v>10</v>
       </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <f>SUM(F2:F5)+SUM(G2:G5)/60</f>
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G5" s="14">
+        <v>40</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -654,16 +683,16 @@
         <v>0.375</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3125</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -673,17 +702,17 @@
       <c r="B7" s="3">
         <v>40826</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -696,17 +725,17 @@
       <c r="B8" s="3">
         <v>40827</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -719,17 +748,17 @@
       <c r="B9" s="3">
         <v>40828</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -742,17 +771,17 @@
       <c r="B10" s="3">
         <v>40829</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
         <v>0</v>
@@ -765,20 +794,20 @@
       <c r="B11" s="3">
         <v>40830</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +821,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -815,7 +844,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -861,7 +890,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -884,7 +913,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -893,7 +922,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,7 +936,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -930,7 +959,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.3125</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -976,13 +1005,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -999,7 +1028,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1008,35 +1037,58 @@
         <v>10</v>
       </c>
       <c r="G21" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="8" t="s">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40847</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="8">
-        <f>SUM(F6:F21)</f>
-        <v>166</v>
-      </c>
-      <c r="G22" s="8">
-        <f>SUM(G6:G21)/60</f>
+      <c r="F23" s="8">
+        <f>SUM(F2:F22)</f>
+        <v>156</v>
+      </c>
+      <c r="G23" s="8">
+        <f>SUM(G2:G22)/60</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="8" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="9">
-        <f>ROUND(SUM(F22:G22),0)</f>
-        <v>168</v>
-      </c>
-      <c r="G23" s="10"/>
+      <c r="F24" s="11">
+        <f>ROUND(SUM(F23:G23),0)</f>
+        <v>158</v>
+      </c>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -237,17 +237,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,11 +666,11 @@
       <c r="F5" s="6">
         <v>10</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <v>40</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -818,19 +818,19 @@
         <v>40833</v>
       </c>
       <c r="C12" s="4">
-        <v>0.375</v>
+        <v>0.40625</v>
       </c>
       <c r="D12" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,16 +844,16 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(G2:G22)/60</f>
-        <v>2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="14">
         <f>ROUND(SUM(F23:G23),0)</f>
-        <v>158</v>
-      </c>
-      <c r="G24" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="G24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -821,16 +821,16 @@
         <v>0.40625</v>
       </c>
       <c r="D12" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="5">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -841,19 +841,19 @@
         <v>40834</v>
       </c>
       <c r="C13" s="4">
-        <v>0.375</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D13" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -867,16 +867,16 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.25</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,16 +890,16 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,16 +910,16 @@
         <v>40837</v>
       </c>
       <c r="C16" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>40840</v>
       </c>
       <c r="C17" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D17" s="4">
         <v>0.33333333333333331</v>
@@ -942,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -955,17 +955,17 @@
       <c r="B18" s="3">
         <v>40841</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.33333333333333331</v>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -978,17 +978,17 @@
       <c r="B19" s="3">
         <v>40842</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.25</v>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>40843</v>
       </c>
       <c r="C20" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,13 +1028,13 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(G2:G22)/60</f>
-        <v>3.25</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F24" s="14">
         <f>ROUND(SUM(F23:G23),0)</f>
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="G24" s="15"/>
     </row>

--- a/Horas/Octubre.xlsx
+++ b/Horas/Octubre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -1005,7 +1005,7 @@
         <v>0.4375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,16 +1025,16 @@
         <v>40844</v>
       </c>
       <c r="C21" s="4">
-        <v>0.375</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D21" s="4">
-        <v>0.33333333333333331</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1047,17 +1047,17 @@
       <c r="B22" s="3">
         <v>40847</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.33333333333333331</v>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(G2:G22)/60</f>
-        <v>4.166666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F24" s="14">
         <f>ROUND(SUM(F23:G23),0)</f>
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G24" s="15"/>
     </row>
